--- a/UI-UX/danh-sách-các-component.xlsx
+++ b/UI-UX/danh-sách-các-component.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\tailieu\UI-UX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA253E29-60C4-4711-B47D-1D1FBA8C13FB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0125D222-A1E7-4A02-8CAE-2D28A4C2AB7A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Label" sheetId="3" r:id="rId1"/>
@@ -556,7 +556,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -633,8 +633,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F96AB96-1C6A-4B6F-A141-808FC0CEA18F}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R17" sqref="R17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -647,7 +647,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D6AA645-D212-40DD-842B-AC97E7B5A9E5}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
